--- a/Code/Results/Cases/Case_4_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.909459098033665</v>
+        <v>0.943499255685424</v>
       </c>
       <c r="C2">
-        <v>0.9517687051791199</v>
+        <v>0.2867880669805913</v>
       </c>
       <c r="D2">
-        <v>0.2082765888056741</v>
+        <v>0.07942334282255104</v>
       </c>
       <c r="E2">
-        <v>1.451371363783466</v>
+        <v>0.422417126820946</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007643853097712432</v>
+        <v>0.002386298674390978</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2505481750170375</v>
+        <v>0.3794055995484555</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5142355336851878</v>
+        <v>0.8453349042530007</v>
       </c>
       <c r="O2">
-        <v>2.324782751861676</v>
+        <v>2.068135879610168</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.524461340741027</v>
+        <v>0.8302944320977872</v>
       </c>
       <c r="C3">
-        <v>0.8271996741619603</v>
+        <v>0.2499844811424055</v>
       </c>
       <c r="D3">
-        <v>0.1801157729806988</v>
+        <v>0.0719111095230005</v>
       </c>
       <c r="E3">
-        <v>1.243253140532389</v>
+        <v>0.3683573400674049</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007700499518207282</v>
+        <v>0.002389893946760261</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2362030698289495</v>
+        <v>0.3808875235087257</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5359567191457444</v>
+        <v>0.8542444459377236</v>
       </c>
       <c r="O3">
-        <v>2.073961160758245</v>
+        <v>2.028164200781674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.289250084762671</v>
+        <v>0.7607646330926059</v>
       </c>
       <c r="C4">
-        <v>0.7511949366504496</v>
+        <v>0.2273288960323328</v>
       </c>
       <c r="D4">
-        <v>0.163054373925263</v>
+        <v>0.06733570831745794</v>
       </c>
       <c r="E4">
-        <v>1.118287480724021</v>
+        <v>0.3352707887242445</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007736215790516118</v>
+        <v>0.002392216674147907</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2284141353320877</v>
+        <v>0.38214183791602</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5502896802392172</v>
+        <v>0.8601306423851582</v>
       </c>
       <c r="O4">
-        <v>1.92646711165861</v>
+        <v>2.005470027344842</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.193631155878393</v>
+        <v>0.7324258458006057</v>
       </c>
       <c r="C5">
-        <v>0.7203167897874891</v>
+        <v>0.2180819254666062</v>
       </c>
       <c r="D5">
-        <v>0.1561517785231104</v>
+        <v>0.06548045949212167</v>
       </c>
       <c r="E5">
-        <v>1.067961505930171</v>
+        <v>0.3218122999286948</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007751015618547581</v>
+        <v>0.002393192273751751</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2254758092960429</v>
+        <v>0.382739163897444</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5563709015355727</v>
+        <v>0.862633837071705</v>
       </c>
       <c r="O5">
-        <v>1.867840745236123</v>
+        <v>1.996683994677795</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.177765894285358</v>
+        <v>0.7277199380201296</v>
       </c>
       <c r="C6">
-        <v>0.7151944638304144</v>
+        <v>0.2165455880056015</v>
       </c>
       <c r="D6">
-        <v>0.1550084185158624</v>
+        <v>0.06517295421176073</v>
       </c>
       <c r="E6">
-        <v>1.059638034839125</v>
+        <v>0.3195789468982611</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007753488203811664</v>
+        <v>0.002393356030054544</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2250015685871602</v>
+        <v>0.3828435423489189</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5573949245308185</v>
+        <v>0.8630558033505409</v>
       </c>
       <c r="O6">
-        <v>1.858190777204811</v>
+        <v>1.995252903850599</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.287959678797506</v>
+        <v>0.7603824650507249</v>
       </c>
       <c r="C7">
-        <v>0.7507781544516092</v>
+        <v>0.2272042474608043</v>
       </c>
       <c r="D7">
-        <v>0.1629610901050427</v>
+        <v>0.06731065036932193</v>
       </c>
       <c r="E7">
-        <v>1.117606481950276</v>
+        <v>0.3350891863149599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007736414381489794</v>
+        <v>0.002392229713567771</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2283735796008877</v>
+        <v>0.3821495452741281</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5503707330012944</v>
+        <v>0.860163978154425</v>
       </c>
       <c r="O7">
-        <v>1.925670669928707</v>
+        <v>2.005349668847401</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.776426344054585</v>
+        <v>0.9044710306848174</v>
       </c>
       <c r="C8">
-        <v>0.908700678569005</v>
+        <v>0.2741101978197378</v>
       </c>
       <c r="D8">
-        <v>0.1985143399925704</v>
+        <v>0.07682536864560063</v>
       </c>
       <c r="E8">
-        <v>1.378956960823785</v>
+        <v>0.4037538904201483</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007663196967018812</v>
+        <v>0.002387514470269569</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2453776516928912</v>
+        <v>0.3798448303509332</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5215119948632818</v>
+        <v>0.848320627759712</v>
       </c>
       <c r="O8">
-        <v>2.236848556827198</v>
+        <v>2.053968249518419</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.746928612906572</v>
+        <v>1.186845533386077</v>
       </c>
       <c r="C9">
-        <v>1.22354583550316</v>
+        <v>0.3656387687408369</v>
       </c>
       <c r="D9">
-        <v>0.2704322730234594</v>
+        <v>0.09578278595277823</v>
       </c>
       <c r="E9">
-        <v>1.919468354498804</v>
+        <v>0.5393549444235504</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007526540567649453</v>
+        <v>0.002379177610047134</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2878198095320528</v>
+        <v>0.3780774781122744</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4733140635416646</v>
+        <v>0.8283949931833305</v>
       </c>
       <c r="O9">
-        <v>2.90660202274006</v>
+        <v>2.164112463911408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.472774518980088</v>
+        <v>1.394200985097768</v>
       </c>
       <c r="C10">
-        <v>1.460122841184841</v>
+        <v>0.4326240994646469</v>
       </c>
       <c r="D10">
-        <v>0.3251916646493385</v>
+        <v>0.1099006663618809</v>
       </c>
       <c r="E10">
-        <v>2.342668479814961</v>
+        <v>0.63971586030992</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007429587300259355</v>
+        <v>0.002373600840036738</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.326106858911686</v>
+        <v>0.3784844421057372</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4437658839435343</v>
+        <v>0.8157683082808163</v>
       </c>
       <c r="O10">
-        <v>3.447155453749133</v>
+        <v>2.254259683327234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.807076261837153</v>
+        <v>1.488512464733105</v>
       </c>
       <c r="C11">
-        <v>1.56943756313359</v>
+        <v>0.4630447767865462</v>
       </c>
       <c r="D11">
-        <v>0.3506664087846474</v>
+        <v>0.1163662022844392</v>
       </c>
       <c r="E11">
-        <v>2.54326481761197</v>
+        <v>0.6855666833004506</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007386032378897968</v>
+        <v>0.002371181547430674</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3454631344698456</v>
+        <v>0.3790459360244682</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.431782890942408</v>
+        <v>0.8104616099283533</v>
       </c>
       <c r="O11">
-        <v>3.706706609221726</v>
+        <v>2.297317024447807</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.934383158233459</v>
+        <v>1.524223311657522</v>
       </c>
       <c r="C12">
-        <v>1.61112848751975</v>
+        <v>0.474557099041192</v>
       </c>
       <c r="D12">
-        <v>0.3604078921997171</v>
+        <v>0.1188208587094408</v>
       </c>
       <c r="E12">
-        <v>2.620626967977543</v>
+        <v>0.7029600468829358</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000736959950021987</v>
+        <v>0.002370282233882238</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3531094822970928</v>
+        <v>0.3793131651248558</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4274725486345758</v>
+        <v>0.8085150361207809</v>
       </c>
       <c r="O12">
-        <v>3.807252352983369</v>
+        <v>2.313919724318964</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.906931452252479</v>
+        <v>1.516532478984004</v>
       </c>
       <c r="C13">
-        <v>1.602135537412778</v>
+        <v>0.4720780395673501</v>
       </c>
       <c r="D13">
-        <v>0.3583054421348066</v>
+        <v>0.1182919231244739</v>
       </c>
       <c r="E13">
-        <v>2.603899130448994</v>
+        <v>0.6992126722645366</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007373136250053427</v>
+        <v>0.002370475170415554</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3514479757313822</v>
+        <v>0.3792531763237932</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4283904455545837</v>
+        <v>0.8089314641636207</v>
       </c>
       <c r="O13">
-        <v>3.785492415114561</v>
+        <v>2.310330739208553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.817534804573938</v>
+        <v>1.491450478523461</v>
       </c>
       <c r="C14">
-        <v>1.572861247908691</v>
+        <v>0.4639920490412806</v>
       </c>
       <c r="D14">
-        <v>0.3514658641158519</v>
+        <v>0.1165680216559792</v>
       </c>
       <c r="E14">
-        <v>2.549599871187212</v>
+        <v>0.6869970173434012</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007384679340721144</v>
+        <v>0.002371107223553089</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3460856275643422</v>
+        <v>0.3790668240096835</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4314236123282313</v>
+        <v>0.8103002018651466</v>
       </c>
       <c r="O14">
-        <v>3.714931454378643</v>
+        <v>2.298676951467542</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.762873690193032</v>
+        <v>1.476086637771232</v>
       </c>
       <c r="C15">
-        <v>1.554970092476879</v>
+        <v>0.4590381935356618</v>
       </c>
       <c r="D15">
-        <v>0.3472891943507079</v>
+        <v>0.1155129048507035</v>
       </c>
       <c r="E15">
-        <v>2.516530157328418</v>
+        <v>0.6795186409699312</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007391757091970553</v>
+        <v>0.002371496562191922</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3428434557133571</v>
+        <v>0.3789598032162473</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4333116778023154</v>
+        <v>0.8111467947538955</v>
       </c>
       <c r="O15">
-        <v>3.67201450293976</v>
+        <v>2.291577549879889</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.451019992268755</v>
+        <v>1.388037141137602</v>
       </c>
       <c r="C16">
-        <v>1.453017264780385</v>
+        <v>0.4306350085184363</v>
       </c>
       <c r="D16">
-        <v>0.3235393145178733</v>
+        <v>0.1094790053494421</v>
       </c>
       <c r="E16">
-        <v>2.329741190429871</v>
+        <v>0.6367235565078886</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007432443239432181</v>
+        <v>0.002373761305283963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3248840218610383</v>
+        <v>0.3784553617629598</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.444579815305957</v>
+        <v>0.8161239188498755</v>
       </c>
       <c r="O16">
-        <v>3.430492361838049</v>
+        <v>2.251487286160852</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.260843422697235</v>
+        <v>1.334017191634018</v>
       </c>
       <c r="C17">
-        <v>1.390941480291417</v>
+        <v>0.413197470341288</v>
       </c>
       <c r="D17">
-        <v>0.3091232883612065</v>
+        <v>0.1057885354082799</v>
       </c>
       <c r="E17">
-        <v>2.217380113923696</v>
+        <v>0.610522125666094</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007457531135696081</v>
+        <v>0.00237518070855364</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3143885949653651</v>
+        <v>0.3782426416177316</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4518779986028534</v>
+        <v>0.8192892682931472</v>
       </c>
       <c r="O17">
-        <v>3.286022129878404</v>
+        <v>2.227420244617036</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.151837600258489</v>
+        <v>1.302944917733782</v>
       </c>
       <c r="C18">
-        <v>1.355393135305462</v>
+        <v>0.4031630291570991</v>
       </c>
       <c r="D18">
-        <v>0.3008837988262059</v>
+        <v>0.1036699399352727</v>
       </c>
       <c r="E18">
-        <v>2.153497244382294</v>
+        <v>0.5954700689153611</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007472014006378322</v>
+        <v>0.002376008187161415</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3085319326004452</v>
+        <v>0.378155686713967</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4562118553708103</v>
+        <v>0.8211510436481078</v>
       </c>
       <c r="O18">
-        <v>3.204191762777526</v>
+        <v>2.213770180714732</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.114991647910927</v>
+        <v>1.2924241538459</v>
       </c>
       <c r="C19">
-        <v>1.34338239425108</v>
+        <v>0.399764708836301</v>
       </c>
       <c r="D19">
-        <v>0.2981026299640206</v>
+        <v>0.1029533156859799</v>
       </c>
       <c r="E19">
-        <v>2.131988755170426</v>
+        <v>0.5903767724050653</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000747692728452956</v>
+        <v>0.002376290262167801</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3065788126812166</v>
+        <v>0.3781323099280627</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4577020992079923</v>
+        <v>0.8217884739590033</v>
       </c>
       <c r="O19">
-        <v>3.176694247230358</v>
+        <v>2.209181496766888</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.281048006687286</v>
+        <v>1.339767859825201</v>
       </c>
       <c r="C20">
-        <v>1.397533052295273</v>
+        <v>0.4150542256508629</v>
       </c>
       <c r="D20">
-        <v>0.3106524000621249</v>
+        <v>0.1061809709176345</v>
       </c>
       <c r="E20">
-        <v>2.229262505489729</v>
+        <v>0.6133093996837289</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007454855130668052</v>
+        <v>0.002375028465234593</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.315486960249892</v>
+        <v>0.3782616192032506</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4510868834072426</v>
+        <v>0.8189480520071086</v>
       </c>
       <c r="O20">
-        <v>3.301268270939772</v>
+        <v>2.229962259555862</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.843772328048033</v>
+        <v>1.498817752685113</v>
       </c>
       <c r="C21">
-        <v>1.581451337011231</v>
+        <v>0.4663672989432825</v>
       </c>
       <c r="D21">
-        <v>0.3534721263731768</v>
+        <v>0.1170742017275899</v>
       </c>
       <c r="E21">
-        <v>2.565508770855615</v>
+        <v>0.6905841997561737</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007381287375590088</v>
+        <v>0.002370921118524186</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3476517647111876</v>
+        <v>0.3791200744120573</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4305263776078974</v>
+        <v>0.8098964610748993</v>
       </c>
       <c r="O21">
-        <v>3.735593050148623</v>
+        <v>2.302091843156234</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.215776447885617</v>
+        <v>1.602749081831689</v>
       </c>
       <c r="C22">
-        <v>1.703406393206365</v>
+        <v>0.4998606714731864</v>
       </c>
       <c r="D22">
-        <v>0.3820170554198228</v>
+        <v>0.124230306908089</v>
       </c>
       <c r="E22">
-        <v>2.793569615343799</v>
+        <v>0.7412675709405647</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007333548308948223</v>
+        <v>0.002368334729279999</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3705394033362595</v>
+        <v>0.379999622218449</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.4184236881445855</v>
+        <v>0.8043477322941612</v>
       </c>
       <c r="O22">
-        <v>4.032784746332879</v>
+        <v>2.350970112401228</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.016798779087196</v>
+        <v>1.547280731021544</v>
       </c>
       <c r="C23">
-        <v>1.638137049812656</v>
+        <v>0.4819885169873714</v>
       </c>
       <c r="D23">
-        <v>0.3667259598854287</v>
+        <v>0.1204075696042537</v>
       </c>
       <c r="E23">
-        <v>2.670999997689449</v>
+        <v>0.7141996310265029</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007359003091171183</v>
+        <v>0.002369706197152155</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3581393849799994</v>
+        <v>0.3795008880305204</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4247546648180531</v>
+        <v>0.807275582725353</v>
       </c>
       <c r="O23">
-        <v>3.872839612959865</v>
+        <v>2.324722826484106</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.271912497900871</v>
+        <v>1.33716803092517</v>
       </c>
       <c r="C24">
-        <v>1.394552570833412</v>
+        <v>0.414214815763728</v>
       </c>
       <c r="D24">
-        <v>0.309960938677122</v>
+        <v>0.106003541160149</v>
       </c>
       <c r="E24">
-        <v>2.223888266672006</v>
+        <v>0.6120492375042232</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007456064766089327</v>
+        <v>0.002375097258721986</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3149898398484154</v>
+        <v>0.3782529293889425</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4514441179516524</v>
+        <v>0.8191021851485729</v>
       </c>
       <c r="O24">
-        <v>3.294371689113575</v>
+        <v>2.228812434225347</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.482535392222701</v>
+        <v>1.110474718942555</v>
       </c>
       <c r="C25">
-        <v>1.13761588783035</v>
+        <v>0.3409248239227622</v>
       </c>
       <c r="D25">
-        <v>0.2506846350490122</v>
+        <v>0.09062150725742413</v>
       </c>
       <c r="E25">
-        <v>1.769390557869315</v>
+        <v>0.5025535839006778</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007562843388042353</v>
+        <v>0.002381336209591533</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2752129866804367</v>
+        <v>0.3782581086203578</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4853815603813132</v>
+        <v>0.8334320900740977</v>
       </c>
       <c r="O25">
-        <v>2.717862315007096</v>
+        <v>2.132710178905597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_223/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_223/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.943499255685424</v>
+        <v>2.909459098033608</v>
       </c>
       <c r="C2">
-        <v>0.2867880669805913</v>
+        <v>0.9517687051788073</v>
       </c>
       <c r="D2">
-        <v>0.07942334282255104</v>
+        <v>0.2082765888058304</v>
       </c>
       <c r="E2">
-        <v>0.422417126820946</v>
+        <v>1.451371363783466</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002386298674390978</v>
+        <v>0.0007643853097719833</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3794055995484555</v>
+        <v>0.250548175017002</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8453349042530007</v>
+        <v>0.5142355336852518</v>
       </c>
       <c r="O2">
-        <v>2.068135879610168</v>
+        <v>2.324782751861619</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8302944320977872</v>
+        <v>2.5244613407408</v>
       </c>
       <c r="C3">
-        <v>0.2499844811424055</v>
+        <v>0.8271996741618466</v>
       </c>
       <c r="D3">
-        <v>0.0719111095230005</v>
+        <v>0.180115772980642</v>
       </c>
       <c r="E3">
-        <v>0.3683573400674049</v>
+        <v>1.243253140532389</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002389893946760261</v>
+        <v>0.0007700499518761587</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3808875235087257</v>
+        <v>0.2362030698289672</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8542444459377236</v>
+        <v>0.5359567191458012</v>
       </c>
       <c r="O3">
-        <v>2.028164200781674</v>
+        <v>2.07396116075833</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7607646330926059</v>
+        <v>2.289250084762614</v>
       </c>
       <c r="C4">
-        <v>0.2273288960323328</v>
+        <v>0.7511949366501938</v>
       </c>
       <c r="D4">
-        <v>0.06733570831745794</v>
+        <v>0.1630543739251351</v>
       </c>
       <c r="E4">
-        <v>0.3352707887242445</v>
+        <v>1.118287480724007</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002392216674147907</v>
+        <v>0.0007736215790790018</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.38214183791602</v>
+        <v>0.2284141353321019</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8601306423851582</v>
+        <v>0.550289680239139</v>
       </c>
       <c r="O4">
-        <v>2.005470027344842</v>
+        <v>1.92646711165861</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7324258458006057</v>
+        <v>2.193631155878279</v>
       </c>
       <c r="C5">
-        <v>0.2180819254666062</v>
+        <v>0.7203167897876313</v>
       </c>
       <c r="D5">
-        <v>0.06548045949212167</v>
+        <v>0.1561517785231104</v>
       </c>
       <c r="E5">
-        <v>0.3218122999286948</v>
+        <v>1.067961505930157</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002393192273751751</v>
+        <v>0.0007751015618548794</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.382739163897444</v>
+        <v>0.2254758092960429</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.862633837071705</v>
+        <v>0.5563709015356437</v>
       </c>
       <c r="O5">
-        <v>1.996683994677795</v>
+        <v>1.867840745236151</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7277199380201296</v>
+        <v>2.177765894285528</v>
       </c>
       <c r="C6">
-        <v>0.2165455880056015</v>
+        <v>0.7151944638306134</v>
       </c>
       <c r="D6">
-        <v>0.06517295421176073</v>
+        <v>0.1550084185158198</v>
       </c>
       <c r="E6">
-        <v>0.3195789468982611</v>
+        <v>1.059638034839139</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002393356030054544</v>
+        <v>0.0007753488204076117</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3828435423489189</v>
+        <v>0.2250015685871638</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8630558033505409</v>
+        <v>0.5573949245308825</v>
       </c>
       <c r="O6">
-        <v>1.995252903850599</v>
+        <v>1.858190777204868</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7603824650507249</v>
+        <v>2.287959678797506</v>
       </c>
       <c r="C7">
-        <v>0.2272042474608043</v>
+        <v>0.7507781544514955</v>
       </c>
       <c r="D7">
-        <v>0.06731065036932193</v>
+        <v>0.1629610901050569</v>
       </c>
       <c r="E7">
-        <v>0.3350891863149599</v>
+        <v>1.117606481950261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002392229713567771</v>
+        <v>0.0007736414381756964</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3821495452741281</v>
+        <v>0.2283735796009019</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.860163978154425</v>
+        <v>0.5503707330012872</v>
       </c>
       <c r="O7">
-        <v>2.005349668847401</v>
+        <v>1.92567066992882</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9044710306848174</v>
+        <v>2.776426344054585</v>
       </c>
       <c r="C8">
-        <v>0.2741101978197378</v>
+        <v>0.9087006785689482</v>
       </c>
       <c r="D8">
-        <v>0.07682536864560063</v>
+        <v>0.1985143399924567</v>
       </c>
       <c r="E8">
-        <v>0.4037538904201483</v>
+        <v>1.378956960823814</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002387514470269569</v>
+        <v>0.0007663196967300002</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3798448303509332</v>
+        <v>0.2453776516928876</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.848320627759712</v>
+        <v>0.5215119948632818</v>
       </c>
       <c r="O8">
-        <v>2.053968249518419</v>
+        <v>2.236848556827283</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.186845533386077</v>
+        <v>3.746928612906345</v>
       </c>
       <c r="C9">
-        <v>0.3656387687408369</v>
+        <v>1.223545835502932</v>
       </c>
       <c r="D9">
-        <v>0.09578278595277823</v>
+        <v>0.2704322730234026</v>
       </c>
       <c r="E9">
-        <v>0.5393549444235504</v>
+        <v>1.91946835449879</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002379177610047134</v>
+        <v>0.0007526540567980208</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3780774781122744</v>
+        <v>0.2878198095320528</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8283949931833305</v>
+        <v>0.4733140635416646</v>
       </c>
       <c r="O9">
-        <v>2.164112463911408</v>
+        <v>2.906602022740088</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.394200985097768</v>
+        <v>4.472774518979975</v>
       </c>
       <c r="C10">
-        <v>0.4326240994646469</v>
+        <v>1.460122841185125</v>
       </c>
       <c r="D10">
-        <v>0.1099006663618809</v>
+        <v>0.3251916646493527</v>
       </c>
       <c r="E10">
-        <v>0.63971586030992</v>
+        <v>2.342668479814975</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002373600840036738</v>
+        <v>0.0007429587300178913</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3784844421057372</v>
+        <v>0.3261068589116718</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8157683082808163</v>
+        <v>0.4437658839435343</v>
       </c>
       <c r="O10">
-        <v>2.254259683327234</v>
+        <v>3.447155453749076</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.488512464733105</v>
+        <v>4.807076261837153</v>
       </c>
       <c r="C11">
-        <v>0.4630447767865462</v>
+        <v>1.569437563133135</v>
       </c>
       <c r="D11">
-        <v>0.1163662022844392</v>
+        <v>0.3506664087844484</v>
       </c>
       <c r="E11">
-        <v>0.6855666833004506</v>
+        <v>2.543264817611984</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002371181547430674</v>
+        <v>0.0007386032378524899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3790459360244682</v>
+        <v>0.3454631344698456</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8104616099283533</v>
+        <v>0.4317828909423369</v>
       </c>
       <c r="O11">
-        <v>2.297317024447807</v>
+        <v>3.706706609221783</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.524223311657522</v>
+        <v>4.934383158233572</v>
       </c>
       <c r="C12">
-        <v>0.474557099041192</v>
+        <v>1.611128487520034</v>
       </c>
       <c r="D12">
-        <v>0.1188208587094408</v>
+        <v>0.3604078921997171</v>
       </c>
       <c r="E12">
-        <v>0.7029600468829358</v>
+        <v>2.620626967977543</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002370282233882238</v>
+        <v>0.0007369599500211138</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3793131651248558</v>
+        <v>0.3531094822970999</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8085150361207809</v>
+        <v>0.4274725486345758</v>
       </c>
       <c r="O12">
-        <v>2.313919724318964</v>
+        <v>3.807252352983312</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.516532478984004</v>
+        <v>4.90693145225265</v>
       </c>
       <c r="C13">
-        <v>0.4720780395673501</v>
+        <v>1.602135537412892</v>
       </c>
       <c r="D13">
-        <v>0.1182919231244739</v>
+        <v>0.3583054421345935</v>
       </c>
       <c r="E13">
-        <v>0.6992126722645366</v>
+        <v>2.603899130448951</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002370475170415554</v>
+        <v>0.0007373136250043888</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3792531763237932</v>
+        <v>0.3514479757313751</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8089314641636207</v>
+        <v>0.4283904455545695</v>
       </c>
       <c r="O13">
-        <v>2.310330739208553</v>
+        <v>3.785492415114618</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.491450478523461</v>
+        <v>4.817534804574052</v>
       </c>
       <c r="C14">
-        <v>0.4639920490412806</v>
+        <v>1.572861247908861</v>
       </c>
       <c r="D14">
-        <v>0.1165680216559792</v>
+        <v>0.3514658641157666</v>
       </c>
       <c r="E14">
-        <v>0.6869970173434012</v>
+        <v>2.549599871187255</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002371107223553089</v>
+        <v>0.0007384679340425304</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3790668240096835</v>
+        <v>0.3460856275643565</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8103002018651466</v>
+        <v>0.4314236123282029</v>
       </c>
       <c r="O14">
-        <v>2.298676951467542</v>
+        <v>3.714931454378643</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.476086637771232</v>
+        <v>4.762873690193089</v>
       </c>
       <c r="C15">
-        <v>0.4590381935356618</v>
+        <v>1.554970092477276</v>
       </c>
       <c r="D15">
-        <v>0.1155129048507035</v>
+        <v>0.347289194350509</v>
       </c>
       <c r="E15">
-        <v>0.6795186409699312</v>
+        <v>2.516530157328404</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002371496562191922</v>
+        <v>0.0007391757091777271</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3789598032162473</v>
+        <v>0.34284345571335</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8111467947538955</v>
+        <v>0.433311677802358</v>
       </c>
       <c r="O15">
-        <v>2.291577549879889</v>
+        <v>3.672014502939703</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.388037141137602</v>
+        <v>4.451019992268925</v>
       </c>
       <c r="C16">
-        <v>0.4306350085184363</v>
+        <v>1.453017264780556</v>
       </c>
       <c r="D16">
-        <v>0.1094790053494421</v>
+        <v>0.3235393145180581</v>
       </c>
       <c r="E16">
-        <v>0.6367235565078886</v>
+        <v>2.329741190429829</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002373761305283963</v>
+        <v>0.00074324432399773</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3784553617629598</v>
+        <v>0.3248840218610454</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8161239188498755</v>
+        <v>0.4445798153059997</v>
       </c>
       <c r="O16">
-        <v>2.251487286160852</v>
+        <v>3.430492361838219</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.334017191634018</v>
+        <v>4.260843422697178</v>
       </c>
       <c r="C17">
-        <v>0.413197470341288</v>
+        <v>1.390941480291644</v>
       </c>
       <c r="D17">
-        <v>0.1057885354082799</v>
+        <v>0.3091232883610786</v>
       </c>
       <c r="E17">
-        <v>0.610522125666094</v>
+        <v>2.21738011392371</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00237518070855364</v>
+        <v>0.0007457531136326745</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3782426416177316</v>
+        <v>0.3143885949653651</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8192892682931472</v>
+        <v>0.4518779986029031</v>
       </c>
       <c r="O17">
-        <v>2.227420244617036</v>
+        <v>3.286022129878461</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.302944917733782</v>
+        <v>4.151837600258489</v>
       </c>
       <c r="C18">
-        <v>0.4031630291570991</v>
+        <v>1.355393135305576</v>
       </c>
       <c r="D18">
-        <v>0.1036699399352727</v>
+        <v>0.3008837988262059</v>
       </c>
       <c r="E18">
-        <v>0.5954700689153611</v>
+        <v>2.153497244382336</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002376008187161415</v>
+        <v>0.0007472014006377879</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.378155686713967</v>
+        <v>0.3085319326004452</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8211510436481078</v>
+        <v>0.4562118553708174</v>
       </c>
       <c r="O18">
-        <v>2.213770180714732</v>
+        <v>3.204191762777583</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.2924241538459</v>
+        <v>4.11499164791087</v>
       </c>
       <c r="C19">
-        <v>0.399764708836301</v>
+        <v>1.343382394251023</v>
       </c>
       <c r="D19">
-        <v>0.1029533156859799</v>
+        <v>0.2981026299637364</v>
       </c>
       <c r="E19">
-        <v>0.5903767724050653</v>
+        <v>2.131988755170454</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002376290262167801</v>
+        <v>0.000747692728508253</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3781323099280627</v>
+        <v>0.3065788126812095</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8217884739590033</v>
+        <v>0.4577020992079781</v>
       </c>
       <c r="O19">
-        <v>2.209181496766888</v>
+        <v>3.176694247230358</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.339767859825201</v>
+        <v>4.281048006687342</v>
       </c>
       <c r="C20">
-        <v>0.4150542256508629</v>
+        <v>1.397533052295273</v>
       </c>
       <c r="D20">
-        <v>0.1061809709176345</v>
+        <v>0.3106524000620112</v>
       </c>
       <c r="E20">
-        <v>0.6133093996837289</v>
+        <v>2.229262505489743</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002375028465234593</v>
+        <v>0.0007454855130665249</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3782616192032506</v>
+        <v>0.315486960249892</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8189480520071086</v>
+        <v>0.4510868834072497</v>
       </c>
       <c r="O20">
-        <v>2.229962259555862</v>
+        <v>3.301268270939829</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.498817752685113</v>
+        <v>4.843772328047976</v>
       </c>
       <c r="C21">
-        <v>0.4663672989432825</v>
+        <v>1.581451337011003</v>
       </c>
       <c r="D21">
-        <v>0.1170742017275899</v>
+        <v>0.3534721263732763</v>
       </c>
       <c r="E21">
-        <v>0.6905841997561737</v>
+        <v>2.565508770855615</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002370921118524186</v>
+        <v>0.0007381287375588275</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3791200744120573</v>
+        <v>0.3476517647111876</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8098964610748993</v>
+        <v>0.4305263776079613</v>
       </c>
       <c r="O21">
-        <v>2.302091843156234</v>
+        <v>3.735593050148623</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.602749081831689</v>
+        <v>5.215776447885389</v>
       </c>
       <c r="C22">
-        <v>0.4998606714731864</v>
+        <v>1.703406393206421</v>
       </c>
       <c r="D22">
-        <v>0.124230306908089</v>
+        <v>0.3820170554202207</v>
       </c>
       <c r="E22">
-        <v>0.7412675709405647</v>
+        <v>2.793569615343841</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002368334729279999</v>
+        <v>0.0007333548308654105</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.379999622218449</v>
+        <v>0.3705394033362666</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8043477322941612</v>
+        <v>0.4184236881445784</v>
       </c>
       <c r="O22">
-        <v>2.350970112401228</v>
+        <v>4.032784746332936</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.547280731021544</v>
+        <v>5.016798779087367</v>
       </c>
       <c r="C23">
-        <v>0.4819885169873714</v>
+        <v>1.638137049812485</v>
       </c>
       <c r="D23">
-        <v>0.1204075696042537</v>
+        <v>0.3667259598854145</v>
       </c>
       <c r="E23">
-        <v>0.7141996310265029</v>
+        <v>2.670999997689478</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002369706197152155</v>
+        <v>0.0007359003091063285</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3795008880305204</v>
+        <v>0.3581393849799994</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.807275582725353</v>
+        <v>0.4247546648180389</v>
       </c>
       <c r="O23">
-        <v>2.324722826484106</v>
+        <v>3.872839612959865</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.33716803092517</v>
+        <v>4.271912497900871</v>
       </c>
       <c r="C24">
-        <v>0.414214815763728</v>
+        <v>1.394552570833582</v>
       </c>
       <c r="D24">
-        <v>0.106003541160149</v>
+        <v>0.3099609386772073</v>
       </c>
       <c r="E24">
-        <v>0.6120492375042232</v>
+        <v>2.22388826667202</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002375097258721986</v>
+        <v>0.0007456064765737366</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3782529293889425</v>
+        <v>0.3149898398484154</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8191021851485729</v>
+        <v>0.4514441179516595</v>
       </c>
       <c r="O24">
-        <v>2.228812434225347</v>
+        <v>3.294371689113575</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.110474718942555</v>
+        <v>3.48253539222253</v>
       </c>
       <c r="C25">
-        <v>0.3409248239227622</v>
+        <v>1.137615887830407</v>
       </c>
       <c r="D25">
-        <v>0.09062150725742413</v>
+        <v>0.2506846350489127</v>
       </c>
       <c r="E25">
-        <v>0.5025535839006778</v>
+        <v>1.769390557869272</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002381336209591533</v>
+        <v>0.000756284338805076</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3782581086203578</v>
+        <v>0.2752129866804296</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8334320900740977</v>
+        <v>0.4853815603812492</v>
       </c>
       <c r="O25">
-        <v>2.132710178905597</v>
+        <v>2.717862315007096</v>
       </c>
     </row>
   </sheetData>
